--- a/Sprint3/Lab 2 Analysis.xlsx
+++ b/Sprint3/Lab 2 Analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jy123\OneDrive\Documents\Alex-Yang-CSE-3353\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7B635679-E495-4B52-BBD7-7FDDF5295E71}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E66C4AE0-0E27-408D-9628-1441968CF81A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{7EFA43C1-F6F6-4A25-961C-A5EDE2370974}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,22 +26,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Number of Nodes</t>
   </si>
   <si>
-    <t>Brute Force</t>
+    <t>Brute Force (s)</t>
   </si>
   <si>
-    <t>Dynamic Programming</t>
+    <t>Dynamic Programming (s)</t>
+  </si>
+  <si>
+    <t>Factorial</t>
+  </si>
+  <si>
+    <t>Factorial Time</t>
+  </si>
+  <si>
+    <t>D:14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +58,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -65,13 +95,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,11 +233,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>DATA!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Brute Force</c:v>
+                  <c:v>Brute Force (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -192,7 +256,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>DATA!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -228,7 +292,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>DATA!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -274,11 +338,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>DATA!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dynamic Programming</c:v>
+                  <c:v>Dynamic Programming (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -297,7 +361,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>DATA!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -333,7 +397,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>DATA!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -547,8 +611,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Runtime (s)</a:t>
+                  <a:t>Total</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -740,8 +809,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Brute Force vs. DP on TSP Efficiency</a:t>
+              <a:t>Brute Force vs. DP on TSP Efficiency (Logarithmic</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -785,11 +859,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>DATA!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Brute Force</c:v>
+                  <c:v>Brute Force (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -808,7 +882,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>DATA!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -844,7 +918,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>DATA!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -890,11 +964,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>DATA!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dynamic Programming</c:v>
+                  <c:v>Dynamic Programming (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -913,7 +987,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>DATA!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -949,7 +1023,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>DATA!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1163,7 +1237,3217 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Runtime (s)</a:t>
+                  <a:t>Total Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476072720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force TSP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0200000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7200000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.4299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>21.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F31-463A-BB2E-D0D9F186BD52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="478403152"/>
+        <c:axId val="478409384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="478403152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478409384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478409384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478403152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force TSP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Efficiency (Logarithmic)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0200000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7200000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.4299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>21.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0740-4C44-B2DF-94903E8EA3DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="478403152"/>
+        <c:axId val="478409384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="478403152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478409384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="478409384"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478403152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Programming</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$B$43:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$C$43:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8399999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.2900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>9.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D47-498A-889B-0268D456BDC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="483686872"/>
+        <c:axId val="483688184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="483686872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483688184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="483688184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483686872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dynamic Programming (Logarithmic)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$B$43:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$C$43:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8399999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.2900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>9.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17B8-4119-90CB-CDF5723C2987}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="483686872"/>
+        <c:axId val="483688184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="483686872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483688184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="483688184"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483686872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force vs. DP on TSP Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0200000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7200000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.4299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>21.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD85-4E9A-83CE-F5708AABF227}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8399999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.2900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>9.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD85-4E9A-83CE-F5708AABF227}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="476072720"/>
+        <c:axId val="476073048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="476072720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476073048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="476073048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Runtime (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476072720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Brute Force vs. DP on TSP Efficiency (Logarithmic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brute Force (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0200000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7200000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>3.4299999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>21.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92DC-4B42-924B-6BD0B86E63E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DATA!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Programming (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DATA!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DATA!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.1699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8600000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8399999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1.63E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.7999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>8.2900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>9.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92DC-4B42-924B-6BD0B86E63E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="476072720"/>
+        <c:axId val="476073048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="476072720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476073048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="476073048"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Runtime (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1401,6 +4685,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1918,6 +5442,3102 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2512,13 +9132,258 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E14A8D-443D-4425-B5B8-6D3C5C7CB514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CC035F-B4FB-413C-99B5-B7536766E36E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0DA37D-A5EF-4988-B9D3-53A5EA4C69DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AE9E4F-D46B-4F10-AF28-28C6948D14B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889D6AE4-79DF-460D-B24C-2A2903C47BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A57DD44-F182-4C3F-BE18-A71157DF9FE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05345607-04AC-4703-A674-3ED566AAA152}" name="Table1" displayName="Table1" ref="B1:D10" totalsRowShown="0">
   <autoFilter ref="B1:D10" xr:uid="{70C36EE7-925C-4CEF-AE66-3B5DA5112F58}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{892EE55E-B09E-451E-9AD3-69271C0CB6C1}" name="Number of Nodes"/>
-    <tableColumn id="2" xr3:uid="{4ABA99DA-F2E8-4C45-97E5-2E01E67E521F}" name="Brute Force"/>
-    <tableColumn id="3" xr3:uid="{5B167F3E-6D8A-4D97-A6C4-951F607B7362}" name="Dynamic Programming"/>
+    <tableColumn id="2" xr3:uid="{4ABA99DA-F2E8-4C45-97E5-2E01E67E521F}" name="Brute Force (s)"/>
+    <tableColumn id="3" xr3:uid="{5B167F3E-6D8A-4D97-A6C4-951F607B7362}" name="Dynamic Programming (s)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66A0FA0E-4C83-4570-A33C-062D859B21F8}" name="Table13" displayName="Table13" ref="B13:D22" totalsRowShown="0">
+  <autoFilter ref="B13:D22" xr:uid="{66549109-120B-4E28-AB49-46D7403BECF2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C6551286-5DD7-4FB0-8599-EB3D1A1EB1F8}" name="Number of Nodes"/>
+    <tableColumn id="2" xr3:uid="{48AAA6AE-C088-43D8-B43B-DA911E0F80BE}" name="Brute Force (s)"/>
+    <tableColumn id="3" xr3:uid="{9EA924E1-D288-495D-8A11-6FB57C08EED6}" name="Factorial Time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2821,9 +9686,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E2E2FB-D74B-4FF0-924A-A25FA7B3E43E}">
-  <dimension ref="B1:D16"/>
+  <dimension ref="B1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2831,8 +9696,8 @@
   <cols>
     <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
@@ -2945,20 +9810,222 @@
         <v>9.33</v>
       </c>
     </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.0200000000000001E-5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.0200000000000001E-5</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.5699999999999999E-5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.7200000000000006E-5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.8399999999999999E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>3.4299999999999999E-4</v>
+      </c>
+      <c r="D17">
+        <v>1.63E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D18">
+        <v>9.7999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>2.47E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0.19</v>
+      </c>
+      <c r="D20">
+        <v>8.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1.88</v>
+      </c>
+      <c r="D21">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>21.2</v>
+      </c>
+      <c r="D22">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2.1699999999999999E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="6">
+        <v>5</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1.8600000000000001E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5">
+        <v>2.8399999999999999E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="6">
+        <v>7</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1.63E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>8</v>
+      </c>
+      <c r="C47" s="9">
+        <v>9.7999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="6">
+        <v>9</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="4">
+        <v>10</v>
+      </c>
+      <c r="C49" s="9">
+        <v>8.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="6">
+        <v>11</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="4">
+        <v>12</v>
+      </c>
+      <c r="C51" s="9">
+        <v>9.33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8533322-797C-41D7-8AC7-B98A4811B39A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>